--- a/Project/Data/Water/Cantons/AG/AG 2017.xlsx
+++ b/Project/Data/Water/Cantons/AG/AG 2017.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="28705"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="40" windowWidth="23280" windowHeight="15420"/>
+    <workbookView xWindow="800" yWindow="0" windowWidth="21100" windowHeight="15460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -566,7 +566,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K39"/>
+  <dimension ref="A1:K93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:K2"/>
@@ -1878,6 +1878,708 @@
       <c r="K39" s="3">
         <v>1</v>
       </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="2"/>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2"/>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+      <c r="K50" s="2"/>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="2"/>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
+      <c r="K52" s="2"/>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53" s="2"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="2"/>
+      <c r="K53" s="2"/>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54" s="2"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2"/>
+      <c r="K54" s="2"/>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55" s="2"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+      <c r="J55" s="2"/>
+      <c r="K55" s="2"/>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56" s="2"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2"/>
+      <c r="K56" s="2"/>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57" s="2"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+      <c r="J57" s="2"/>
+      <c r="K57" s="2"/>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58" s="2"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
+      <c r="J58" s="2"/>
+      <c r="K58" s="2"/>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59" s="2"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
+      <c r="J59" s="2"/>
+      <c r="K59" s="2"/>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60" s="2"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2"/>
+      <c r="J60" s="2"/>
+      <c r="K60" s="2"/>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61" s="2"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
+      <c r="J61" s="2"/>
+      <c r="K61" s="2"/>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62" s="2"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="2"/>
+      <c r="J62" s="2"/>
+      <c r="K62" s="2"/>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63" s="2"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2"/>
+      <c r="J63" s="2"/>
+      <c r="K63" s="2"/>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="A64" s="2"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="2"/>
+      <c r="J64" s="2"/>
+      <c r="K64" s="2"/>
+    </row>
+    <row r="65" spans="1:11">
+      <c r="A65" s="2"/>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="2"/>
+      <c r="J65" s="2"/>
+      <c r="K65" s="2"/>
+    </row>
+    <row r="66" spans="1:11">
+      <c r="A66" s="2"/>
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2"/>
+      <c r="H66" s="2"/>
+      <c r="I66" s="2"/>
+      <c r="J66" s="2"/>
+      <c r="K66" s="2"/>
+    </row>
+    <row r="67" spans="1:11">
+      <c r="A67" s="2"/>
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
+      <c r="I67" s="2"/>
+      <c r="J67" s="2"/>
+      <c r="K67" s="2"/>
+    </row>
+    <row r="68" spans="1:11">
+      <c r="A68" s="2"/>
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2"/>
+      <c r="H68" s="2"/>
+      <c r="I68" s="2"/>
+      <c r="J68" s="2"/>
+      <c r="K68" s="2"/>
+    </row>
+    <row r="69" spans="1:11">
+      <c r="A69" s="2"/>
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2"/>
+      <c r="H69" s="2"/>
+      <c r="I69" s="2"/>
+      <c r="J69" s="2"/>
+      <c r="K69" s="2"/>
+    </row>
+    <row r="70" spans="1:11">
+      <c r="A70" s="2"/>
+      <c r="B70" s="2"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
+      <c r="G70" s="2"/>
+      <c r="H70" s="2"/>
+      <c r="I70" s="2"/>
+      <c r="J70" s="2"/>
+      <c r="K70" s="2"/>
+    </row>
+    <row r="71" spans="1:11">
+      <c r="A71" s="2"/>
+      <c r="B71" s="2"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2"/>
+      <c r="G71" s="2"/>
+      <c r="H71" s="2"/>
+      <c r="I71" s="2"/>
+      <c r="J71" s="2"/>
+      <c r="K71" s="2"/>
+    </row>
+    <row r="72" spans="1:11">
+      <c r="A72" s="2"/>
+      <c r="B72" s="2"/>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
+      <c r="G72" s="2"/>
+      <c r="H72" s="2"/>
+      <c r="I72" s="2"/>
+      <c r="J72" s="2"/>
+      <c r="K72" s="2"/>
+    </row>
+    <row r="73" spans="1:11">
+      <c r="A73" s="2"/>
+      <c r="B73" s="2"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="2"/>
+      <c r="H73" s="2"/>
+      <c r="I73" s="2"/>
+      <c r="J73" s="2"/>
+      <c r="K73" s="2"/>
+    </row>
+    <row r="74" spans="1:11">
+      <c r="A74" s="2"/>
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="2"/>
+      <c r="H74" s="2"/>
+      <c r="I74" s="2"/>
+      <c r="J74" s="2"/>
+      <c r="K74" s="2"/>
+    </row>
+    <row r="75" spans="1:11">
+      <c r="A75" s="2"/>
+      <c r="B75" s="2"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
+      <c r="G75" s="2"/>
+      <c r="H75" s="2"/>
+      <c r="I75" s="2"/>
+      <c r="J75" s="2"/>
+      <c r="K75" s="2"/>
+    </row>
+    <row r="76" spans="1:11">
+      <c r="A76" s="2"/>
+      <c r="B76" s="2"/>
+      <c r="C76" s="2"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
+      <c r="G76" s="2"/>
+      <c r="H76" s="2"/>
+      <c r="I76" s="2"/>
+      <c r="J76" s="2"/>
+      <c r="K76" s="2"/>
+    </row>
+    <row r="77" spans="1:11">
+      <c r="A77" s="2"/>
+      <c r="B77" s="2"/>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2"/>
+      <c r="F77" s="2"/>
+      <c r="G77" s="2"/>
+      <c r="H77" s="2"/>
+      <c r="I77" s="2"/>
+      <c r="J77" s="2"/>
+      <c r="K77" s="2"/>
+    </row>
+    <row r="78" spans="1:11">
+      <c r="A78" s="2"/>
+      <c r="B78" s="2"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="2"/>
+      <c r="H78" s="2"/>
+      <c r="I78" s="2"/>
+      <c r="J78" s="2"/>
+      <c r="K78" s="2"/>
+    </row>
+    <row r="79" spans="1:11">
+      <c r="A79" s="2"/>
+      <c r="B79" s="2"/>
+      <c r="C79" s="2"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="2"/>
+      <c r="F79" s="2"/>
+      <c r="G79" s="2"/>
+      <c r="H79" s="2"/>
+      <c r="I79" s="2"/>
+      <c r="J79" s="2"/>
+      <c r="K79" s="2"/>
+    </row>
+    <row r="80" spans="1:11">
+      <c r="A80" s="2"/>
+      <c r="B80" s="2"/>
+      <c r="C80" s="2"/>
+      <c r="D80" s="2"/>
+      <c r="E80" s="2"/>
+      <c r="F80" s="2"/>
+      <c r="G80" s="2"/>
+      <c r="H80" s="2"/>
+      <c r="I80" s="2"/>
+      <c r="J80" s="2"/>
+      <c r="K80" s="2"/>
+    </row>
+    <row r="81" spans="1:11">
+      <c r="A81" s="2"/>
+      <c r="B81" s="2"/>
+      <c r="C81" s="2"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2"/>
+      <c r="F81" s="2"/>
+      <c r="G81" s="2"/>
+      <c r="H81" s="2"/>
+      <c r="I81" s="2"/>
+      <c r="J81" s="2"/>
+      <c r="K81" s="2"/>
+    </row>
+    <row r="82" spans="1:11">
+      <c r="A82" s="2"/>
+      <c r="B82" s="2"/>
+      <c r="C82" s="2"/>
+      <c r="D82" s="2"/>
+      <c r="E82" s="2"/>
+      <c r="F82" s="2"/>
+      <c r="G82" s="2"/>
+      <c r="H82" s="2"/>
+      <c r="I82" s="2"/>
+      <c r="J82" s="2"/>
+      <c r="K82" s="2"/>
+    </row>
+    <row r="83" spans="1:11">
+      <c r="A83" s="2"/>
+      <c r="B83" s="2"/>
+      <c r="C83" s="2"/>
+      <c r="D83" s="2"/>
+      <c r="E83" s="2"/>
+      <c r="F83" s="2"/>
+      <c r="G83" s="2"/>
+      <c r="H83" s="2"/>
+      <c r="I83" s="2"/>
+      <c r="J83" s="2"/>
+      <c r="K83" s="2"/>
+    </row>
+    <row r="84" spans="1:11">
+      <c r="A84" s="2"/>
+      <c r="B84" s="2"/>
+      <c r="C84" s="2"/>
+      <c r="D84" s="2"/>
+      <c r="E84" s="2"/>
+      <c r="F84" s="2"/>
+      <c r="G84" s="2"/>
+      <c r="H84" s="2"/>
+      <c r="I84" s="2"/>
+      <c r="J84" s="2"/>
+      <c r="K84" s="2"/>
+    </row>
+    <row r="85" spans="1:11">
+      <c r="A85" s="2"/>
+      <c r="B85" s="2"/>
+      <c r="C85" s="2"/>
+      <c r="D85" s="2"/>
+      <c r="E85" s="2"/>
+      <c r="F85" s="2"/>
+      <c r="G85" s="2"/>
+      <c r="H85" s="2"/>
+      <c r="I85" s="2"/>
+      <c r="J85" s="2"/>
+      <c r="K85" s="2"/>
+    </row>
+    <row r="86" spans="1:11">
+      <c r="A86" s="2"/>
+      <c r="B86" s="2"/>
+      <c r="C86" s="2"/>
+      <c r="D86" s="2"/>
+      <c r="E86" s="2"/>
+      <c r="F86" s="2"/>
+      <c r="G86" s="2"/>
+      <c r="H86" s="2"/>
+      <c r="I86" s="2"/>
+      <c r="J86" s="2"/>
+      <c r="K86" s="2"/>
+    </row>
+    <row r="87" spans="1:11">
+      <c r="A87" s="2"/>
+      <c r="B87" s="2"/>
+      <c r="C87" s="2"/>
+      <c r="D87" s="2"/>
+      <c r="E87" s="2"/>
+      <c r="F87" s="2"/>
+      <c r="G87" s="2"/>
+      <c r="H87" s="2"/>
+      <c r="I87" s="2"/>
+      <c r="J87" s="2"/>
+      <c r="K87" s="2"/>
+    </row>
+    <row r="88" spans="1:11">
+      <c r="A88" s="2"/>
+      <c r="B88" s="2"/>
+      <c r="C88" s="2"/>
+      <c r="D88" s="2"/>
+      <c r="E88" s="2"/>
+      <c r="F88" s="2"/>
+      <c r="G88" s="2"/>
+      <c r="H88" s="2"/>
+      <c r="I88" s="2"/>
+      <c r="J88" s="2"/>
+      <c r="K88" s="2"/>
+    </row>
+    <row r="89" spans="1:11">
+      <c r="A89" s="2"/>
+      <c r="B89" s="2"/>
+      <c r="C89" s="2"/>
+      <c r="D89" s="2"/>
+      <c r="E89" s="2"/>
+      <c r="F89" s="2"/>
+      <c r="G89" s="2"/>
+      <c r="H89" s="2"/>
+      <c r="I89" s="2"/>
+      <c r="J89" s="2"/>
+      <c r="K89" s="2"/>
+    </row>
+    <row r="90" spans="1:11">
+      <c r="A90" s="2"/>
+      <c r="B90" s="2"/>
+      <c r="C90" s="2"/>
+      <c r="D90" s="2"/>
+      <c r="E90" s="2"/>
+      <c r="F90" s="2"/>
+      <c r="G90" s="2"/>
+      <c r="H90" s="2"/>
+      <c r="I90" s="2"/>
+      <c r="J90" s="2"/>
+      <c r="K90" s="2"/>
+    </row>
+    <row r="91" spans="1:11">
+      <c r="A91" s="2"/>
+      <c r="B91" s="2"/>
+      <c r="C91" s="2"/>
+      <c r="D91" s="2"/>
+      <c r="E91" s="2"/>
+      <c r="F91" s="2"/>
+      <c r="G91" s="2"/>
+      <c r="H91" s="2"/>
+      <c r="I91" s="2"/>
+      <c r="J91" s="2"/>
+      <c r="K91" s="2"/>
+    </row>
+    <row r="92" spans="1:11">
+      <c r="A92" s="2"/>
+      <c r="B92" s="2"/>
+      <c r="C92" s="2"/>
+      <c r="D92" s="2"/>
+      <c r="E92" s="2"/>
+      <c r="F92" s="2"/>
+      <c r="G92" s="2"/>
+      <c r="H92" s="2"/>
+      <c r="I92" s="2"/>
+      <c r="J92" s="2"/>
+      <c r="K92" s="2"/>
+    </row>
+    <row r="93" spans="1:11">
+      <c r="A93" s="2"/>
+      <c r="B93" s="2"/>
+      <c r="C93" s="2"/>
+      <c r="D93" s="2"/>
+      <c r="E93" s="2"/>
+      <c r="F93" s="2"/>
+      <c r="G93" s="2"/>
+      <c r="H93" s="2"/>
+      <c r="I93" s="2"/>
+      <c r="J93" s="2"/>
+      <c r="K93" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
